--- a/src/analysis_examples/circadb/results_lomb/cosinor_10496405_gm5105_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10496405_gm5105_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23971456999356022, 0.3404482183467189]</t>
+          <t>[0.24039081479293328, 0.33977197354734584]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.540634783254063e-11</v>
+        <v>5.875100406171896e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>7.540634783254063e-11</v>
+        <v>5.875100406171896e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-0.8553685703467702</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3974683740278304, 0.44820062181971543]</t>
+          <t>[0.397457579649063, 0.44821141619848287]</t>
         </is>
       </c>
       <c r="U2" t="n">
